--- a/data/trans_orig/P19F$mañana-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>153771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136813</v>
+        <v>138433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174172</v>
+        <v>172849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4239257355048398</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3771763241740535</v>
+        <v>0.3816419087229933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4801700110498399</v>
+        <v>0.4765227908872552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -762,19 +762,19 @@
         <v>148319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129578</v>
+        <v>129745</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167132</v>
+        <v>167216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3943069183145768</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3444847893649377</v>
+        <v>0.3449277067343413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4443217086854833</v>
+        <v>0.444546728928137</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>298</v>
@@ -783,19 +783,19 @@
         <v>302089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>276879</v>
+        <v>275833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>330156</v>
+        <v>329482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4088473591027012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3747284902736615</v>
+        <v>0.3733127023243872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4468326795033676</v>
+        <v>0.4459214860558821</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>290961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276172</v>
+        <v>273848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>307191</v>
+        <v>305979</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8021413023283179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.761371414889574</v>
+        <v>0.7549635016460282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8468870610450964</v>
+        <v>0.8435435972403695</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>334</v>
@@ -833,19 +833,19 @@
         <v>333537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320666</v>
+        <v>319832</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344438</v>
+        <v>344453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.886711609897499</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8524945896879699</v>
+        <v>0.8502766447375307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9156936333296199</v>
+        <v>0.9157317731270721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>618</v>
@@ -854,19 +854,19 @@
         <v>624497</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>605673</v>
+        <v>604078</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>644232</v>
+        <v>643033</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8451944371574814</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8197178797856018</v>
+        <v>0.8175588998156663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8719038097926678</v>
+        <v>0.8702813303833149</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>114554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96805</v>
+        <v>97392</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133400</v>
+        <v>132841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3158104347719805</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.266879806508252</v>
+        <v>0.2684982346453113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.367767483102171</v>
+        <v>0.3662259542208869</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>111</v>
@@ -904,19 +904,19 @@
         <v>108564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>92012</v>
+        <v>91764</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>126497</v>
+        <v>127317</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2886196006951257</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.24461536772271</v>
+        <v>0.2439559561443492</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3362944505730327</v>
+        <v>0.3384751761886551</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>223</v>
@@ -925,19 +925,19 @@
         <v>223118</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198166</v>
+        <v>198259</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252055</v>
+        <v>249100</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3019680983861205</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.268197769508968</v>
+        <v>0.2683241469175962</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3411316529116494</v>
+        <v>0.3371321680595225</v>
       </c>
     </row>
     <row r="7">
@@ -958,19 +958,19 @@
         <v>216258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>191677</v>
+        <v>192896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239736</v>
+        <v>240262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3839897695275462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.340343405578772</v>
+        <v>0.3425074671119209</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4256765666192069</v>
+        <v>0.4266098329942836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>226</v>
@@ -979,19 +979,19 @@
         <v>242552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>218137</v>
+        <v>220131</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>266031</v>
+        <v>266422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4486840335500868</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4035209629920734</v>
+        <v>0.4072092790105899</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4921173753610003</v>
+        <v>0.4928407468780776</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>425</v>
@@ -1000,19 +1000,19 @@
         <v>458810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>425340</v>
+        <v>423131</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>493540</v>
+        <v>492041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4156744911999432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.385351104463255</v>
+        <v>0.383349495972906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4471389119060405</v>
+        <v>0.4457813899226791</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>441387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419594</v>
+        <v>420058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460607</v>
+        <v>461802</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.78372990652712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7450341769121982</v>
+        <v>0.7458577052404519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8178561030371821</v>
+        <v>0.8199789898669206</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>412</v>
@@ -1050,19 +1050,19 @@
         <v>439387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418092</v>
+        <v>421020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>456337</v>
+        <v>458738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.812799039766595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7734074653448517</v>
+        <v>0.7788223273822563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8441533093268012</v>
+        <v>0.8485957692114754</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>827</v>
@@ -1071,19 +1071,19 @@
         <v>880774</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>849485</v>
+        <v>852572</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>907377</v>
+        <v>906323</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7979668316991829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7696190148635287</v>
+        <v>0.7724163677042789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8220688007382534</v>
+        <v>0.821113521626424</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>181956</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>160019</v>
+        <v>157207</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>207428</v>
+        <v>204418</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3230821911443675</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2841303950669805</v>
+        <v>0.2791371844510088</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3683099833358423</v>
+        <v>0.3629661803010578</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>177</v>
@@ -1121,19 +1121,19 @@
         <v>186441</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>165577</v>
+        <v>163889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>209887</v>
+        <v>208586</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3448865702095302</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3062929428503569</v>
+        <v>0.3031700151863378</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3882590613692388</v>
+        <v>0.3858526060941352</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>348</v>
@@ -1142,19 +1142,19 @@
         <v>368397</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>334807</v>
+        <v>338736</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>401292</v>
+        <v>401815</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3337611236951483</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3033293531681873</v>
+        <v>0.3068889817140402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3635640393705624</v>
+        <v>0.3640379629792853</v>
       </c>
     </row>
     <row r="10">
@@ -1175,19 +1175,19 @@
         <v>136941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118781</v>
+        <v>118459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156691</v>
+        <v>157621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3399793871453214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2948942165279411</v>
+        <v>0.2940948598232153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3890110514044243</v>
+        <v>0.3913193242975643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -1196,19 +1196,19 @@
         <v>152158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133735</v>
+        <v>132345</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173518</v>
+        <v>172422</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.396489320454917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3484847634355681</v>
+        <v>0.3448613978587424</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4521489199136972</v>
+        <v>0.4492928037460255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>270</v>
@@ -1217,19 +1217,19 @@
         <v>289099</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>260741</v>
+        <v>260464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>315607</v>
+        <v>317346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3675507210907532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3314971303991626</v>
+        <v>0.3311453577173689</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4012513064396955</v>
+        <v>0.4034631994934541</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>268744</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247934</v>
+        <v>249475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>288231</v>
+        <v>288389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6672006737737195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.61553707593822</v>
+        <v>0.6193629683430205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7155798279380416</v>
+        <v>0.7159725392619712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -1267,19 +1267,19 @@
         <v>257679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240273</v>
+        <v>236565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276188</v>
+        <v>275078</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6714552638064256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6260992999342575</v>
+        <v>0.6164377850519766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7196860616880205</v>
+        <v>0.7167929404786941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -1288,19 +1288,19 @@
         <v>526423</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>500219</v>
+        <v>498826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>554123</v>
+        <v>552229</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6692764986017189</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6359612666591891</v>
+        <v>0.6341896030426156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7044925729478649</v>
+        <v>0.7020841535655956</v>
       </c>
     </row>
     <row r="12">
@@ -1317,19 +1317,19 @@
         <v>136475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117083</v>
+        <v>118140</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157294</v>
+        <v>156564</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3388221694807507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2906781914409714</v>
+        <v>0.2933031669177459</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3905071710221221</v>
+        <v>0.3886952350499788</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>131</v>
@@ -1338,19 +1338,19 @@
         <v>136022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>116832</v>
+        <v>118228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>156113</v>
+        <v>155772</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.354443793815128</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.30443955009115</v>
+        <v>0.3080772969718888</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4067954103942405</v>
+        <v>0.4059072011696953</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>256</v>
@@ -1359,19 +1359,19 @@
         <v>272498</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>246619</v>
+        <v>245093</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>300455</v>
+        <v>296953</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3464439979995266</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3135433305936027</v>
+        <v>0.3116031544494644</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3819884911368923</v>
+        <v>0.3775363507101604</v>
       </c>
     </row>
     <row r="13">
@@ -1392,19 +1392,19 @@
         <v>220032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198055</v>
+        <v>200797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>240228</v>
+        <v>241394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4888748841051215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.440044402218406</v>
+        <v>0.4461362675300285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5337469562614136</v>
+        <v>0.5363367913789574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>219</v>
@@ -1413,19 +1413,19 @@
         <v>239655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>218613</v>
+        <v>216769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262234</v>
+        <v>260686</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5421557017786875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4945526868401642</v>
+        <v>0.4903814860512967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5932338116562185</v>
+        <v>0.5897331911760866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>441</v>
@@ -1434,19 +1434,19 @@
         <v>459687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>427686</v>
+        <v>430134</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>489732</v>
+        <v>491079</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.515275286902116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4794044113709495</v>
+        <v>0.4821478119831518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5489526788988707</v>
+        <v>0.5504631565492342</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>381622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366149</v>
+        <v>367773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>396197</v>
+        <v>395778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8479011057770944</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8135220227847909</v>
+        <v>0.8171298348663322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8802830261565222</v>
+        <v>0.8793517102956535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>344</v>
@@ -1484,19 +1484,19 @@
         <v>375255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357538</v>
+        <v>357439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>391078</v>
+        <v>388565</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8489134179063261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.808833419134221</v>
+        <v>0.8086103544733897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8847101660992382</v>
+        <v>0.8790239511766347</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>723</v>
@@ -1505,19 +1505,19 @@
         <v>756877</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>731507</v>
+        <v>734695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>775989</v>
+        <v>778132</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8484027018323903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.819965079071726</v>
+        <v>0.8235384614646432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8698257112802137</v>
+        <v>0.8722284477572736</v>
       </c>
     </row>
     <row r="15">
@@ -1534,19 +1534,19 @@
         <v>114599</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>97820</v>
+        <v>97164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>134605</v>
+        <v>133952</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.254619211898137</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.217339859424633</v>
+        <v>0.2158817634873034</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2990694938344038</v>
+        <v>0.2976187159764913</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>117</v>
@@ -1555,19 +1555,19 @@
         <v>127534</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>106453</v>
+        <v>109510</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>146372</v>
+        <v>149330</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2885118042236874</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2408218187390008</v>
+        <v>0.2477382210403302</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3311277992397427</v>
+        <v>0.3378201012507568</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>230</v>
@@ -1576,19 +1576,19 @@
         <v>242133</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>215585</v>
+        <v>213873</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>269832</v>
+        <v>266103</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2714128372270662</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2416543237267063</v>
+        <v>0.2397355711811474</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3024614828965698</v>
+        <v>0.2982814312695443</v>
       </c>
     </row>
     <row r="16">
@@ -1609,19 +1609,19 @@
         <v>727003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>685786</v>
+        <v>685406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>773401</v>
+        <v>769217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4087062509576784</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3855349886891102</v>
+        <v>0.3853216319728627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4347903891678025</v>
+        <v>0.4324384805207487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>733</v>
@@ -1630,19 +1630,19 @@
         <v>782683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>740432</v>
+        <v>741802</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>826402</v>
+        <v>828108</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.449162664888907</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4249159802387004</v>
+        <v>0.4257020485064478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.474251832940727</v>
+        <v>0.4752311125760187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1434</v>
@@ -1651,19 +1651,19 @@
         <v>1509686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1454010</v>
+        <v>1452226</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1569686</v>
+        <v>1569165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4287262102817363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4129149843315915</v>
+        <v>0.4124085013228516</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4457652931124786</v>
+        <v>0.4456171745550681</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1382714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1346725</v>
+        <v>1347474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1415853</v>
+        <v>1418215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7773341321941131</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7571018500452884</v>
+        <v>0.7575228244853339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.795964182678795</v>
+        <v>0.7972921554714684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1332</v>
@@ -1701,19 +1701,19 @@
         <v>1405857</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1369029</v>
+        <v>1370023</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1437754</v>
+        <v>1437991</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.806787011092903</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.785652177391016</v>
+        <v>0.7862228595760796</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8250918324150266</v>
+        <v>0.8252281387589043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2657</v>
@@ -1722,19 +1722,19 @@
         <v>2788572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2740041</v>
+        <v>2738174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2839954</v>
+        <v>2834119</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7919089642227874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7781268887045814</v>
+        <v>0.7775968563697757</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.806500545682925</v>
+        <v>0.8048436187965965</v>
       </c>
     </row>
     <row r="18">
@@ -1751,19 +1751,19 @@
         <v>547584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>511617</v>
+        <v>502893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>590559</v>
+        <v>584517</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3078406827149777</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2876208458826624</v>
+        <v>0.2827161440561978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3320003318384314</v>
+        <v>0.3286034965603585</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>536</v>
@@ -1772,19 +1772,19 @@
         <v>558561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>519621</v>
+        <v>517486</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>600095</v>
+        <v>600337</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3205444505344092</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2981978331198438</v>
+        <v>0.2969727946231023</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3443798131105271</v>
+        <v>0.3445186690514644</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1057</v>
@@ -1793,19 +1793,19 @@
         <v>1106145</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1051953</v>
+        <v>1051058</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1167356</v>
+        <v>1159856</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3141271745290971</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2987374664765745</v>
+        <v>0.2984832007950673</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3315101294988779</v>
+        <v>0.3293800994754632</v>
       </c>
     </row>
     <row r="19">
